--- a/BackTest/2020-01-21 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-21 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -12826,7 +12826,7 @@
         <v>-440153.5208275097</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-445593.8322275097</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-473387.9753275097</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-473036.7193275097</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-469697.4564275096</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-469697.4564275096</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-471816.0964275096</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-468316.3232275096</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-464501.0275275096</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-466975.2663275096</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-466975.2663275096</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-472923.6593275096</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-472923.6593275096</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>-467972.7309275096</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>-461320.6032275096</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-457485.2713275096</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-460194.1462275096</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-463486.4450275096</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-466623.0261275096</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>-480612.635343489</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-497031.831543489</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-499164.577343489</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-502718.776843489</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-498533.338243489</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-501559.030543489</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>-505207.935443489</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-499672.092743489</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-503585.719643489</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-507068.411243489</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-510295.542143489</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-504807.476543489</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-497559.423643489</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-504054.845543489</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-511376.824943489</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-493101.730543489</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-542145.981843489</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-553448.556443489</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-556323.899743489</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-555559.568243489</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-559835.201943489</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-556874.5165434891</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-551462.883143489</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-547713.977443489</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-550497.9183434891</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-539796.467843489</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-544167.5790434891</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-537365.5391434891</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-548012.2149434891</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>-543931.998543489</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-538461.326743489</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-545018.223943489</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-537489.444143489</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-532068.813743489</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-538717.903643489</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-532800.476543489</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-536181.113143489</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-529180.455243489</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-524444.970243489</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-521235.738243489</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-524809.471843489</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-516346.662543489</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-511180.264443489</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-507852.181443489</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-511022.140743489</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-508339.896943489</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-514220.270843489</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-510295.336943489</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-510295.336943489</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-521968.741243489</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-526435.277543489</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-517838.242043489</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-519848.888043489</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-519890.890243489</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-518841.280243489</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-525129.855943489</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-498627.996443489</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-500600.662043489</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-494189.501643489</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-497383.011543489</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-489556.741643489</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-469916.134643489</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-483460.352043489</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-483460.352043489</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-478958.596843489</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-485126.703643489</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-489653.341143489</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-489653.341143489</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-492894.082343489</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-494517.399043489</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-506256.654743489</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-502266.531443489</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-499648.215643489</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-502895.107543489</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-500060.702743489</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-500060.702743489</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-504188.299943489</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-502194.765743489</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-516114.5223434891</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-510595.6647434891</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-510595.6647434891</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-483482.850543489</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-479502.730343489</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-482531.114143489</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-482531.114143489</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-482531.114143489</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-480094.053543489</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-474254.907343489</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-477669.894343489</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-482172.886443489</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-486661.785043489</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-481242.590443489</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-477732.9108434891</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-480832.4109434891</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-480832.4109434891</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-481618.3535434891</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-485453.2601434891</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-484137.7853306091</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-482654.7758306091</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-486870.5430306091</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-482127.7491306091</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-486614.0436306091</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-489865.1761306091</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-486638.8106306091</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-490168.5968306091</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-490168.5968306091</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-490168.5968306091</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-491405.4402306091</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-493266.4557306091</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-493266.4557306091</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-492165.9719306091</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-492165.9719306091</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-489789.1616306091</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-485788.6207306091</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-487173.6750306091</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-482838.7856306091</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-486193.3291306091</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-483131.4450306091</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-485250.6487306091</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-485250.6487306091</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-485250.6487306091</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-485250.6487306091</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-484065.3645306091</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-482667.9292306091</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-461440.3004306091</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-456456.2575306091</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-466649.5264306091</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-463748.4080306091</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-467666.6046306092</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-448906.8156306092</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-460130.0368306092</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-463854.6482306092</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-464713.5517306092</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-464713.5517306092</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-464713.5517306092</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-469273.4610306092</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-479793.1282306092</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-487763.5806306092</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-485262.9045306093</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-488953.3541306093</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-493312.0741306092</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-487396.5944306092</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-489740.1218306092</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-493279.5702306092</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-495584.8285306092</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-500982.6173306092</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-506241.4388306092</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-509595.7308306092</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-509595.7308306092</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-513125.4015306092</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-518252.4877306093</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-518252.4877306093</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-524883.5275306093</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-514610.6730929193</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-512329.5397929193</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-517831.1262929193</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-522633.0209929193</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-520228.2953929193</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-520228.2953929193</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-517663.7563929193</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-525882.0460929193</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-536745.8770929193</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-539633.7231929193</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22792,7 +22792,7 @@
         <v>-536798.6435929192</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22825,7 +22825,7 @@
         <v>-530186.7064929192</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-526851.7833929192</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-530042.7597929193</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-535169.3716929193</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>-538634.3169929193</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>-542072.4456929193</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-547519.9074929194</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>-551580.2459929193</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>-546237.3551929193</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23122,7 +23122,7 @@
         <v>-542894.0605929192</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23155,7 +23155,7 @@
         <v>-550374.4914929193</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
         <v>-545482.9214929193</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23221,7 +23221,7 @@
         <v>-540661.9469929193</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23254,7 +23254,7 @@
         <v>-535543.7108929193</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23287,7 +23287,7 @@
         <v>-536715.1731929193</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23320,7 +23320,7 @@
         <v>-530047.8192929194</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23353,7 +23353,7 @@
         <v>-534921.6142929194</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23386,7 +23386,7 @@
         <v>-541387.9032929194</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>-545849.1606929194</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23452,7 @@
         <v>-549019.2492929194</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23485,7 @@
         <v>-546065.2676929194</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-552318.3348929194</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-524317.6772929194</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-518870.8251929194</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-522510.3298929193</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-519049.3789929193</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-522715.0777929194</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-517796.0438929194</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-549189.0156929194</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-545058.2138929194</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -35728,10 +35728,14 @@
         <v>-1068141.15481439</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1071" t="inlineStr"/>
       <c r="L1071" t="n">
         <v>1</v>
@@ -35764,8 +35768,14 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="J1072" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -35794,11 +35804,19 @@
         <v>-1068141.15481439</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -35830,8 +35848,14 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="J1074" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -35863,8 +35887,14 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="J1075" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -35896,8 +35926,14 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="J1076" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -35929,8 +35965,14 @@
         <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="J1077" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -35962,8 +36004,14 @@
         <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="J1078" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -35995,8 +36043,14 @@
         <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="J1079" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36028,8 +36082,14 @@
         <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="J1080" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36061,8 +36121,14 @@
         <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="J1081" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36094,8 +36160,14 @@
         <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="J1082" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36127,8 +36199,14 @@
         <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="J1083" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36160,8 +36238,14 @@
         <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="J1084" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36193,8 +36277,14 @@
         <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="J1085" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36226,8 +36316,14 @@
         <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="J1086" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36259,8 +36355,14 @@
         <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="J1087" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36292,8 +36394,14 @@
         <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="J1088" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36325,8 +36433,14 @@
         <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+      <c r="J1089" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36358,8 +36472,14 @@
         <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+      <c r="J1090" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -36391,8 +36511,14 @@
         <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+      <c r="J1091" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36424,8 +36550,14 @@
         <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+      <c r="J1092" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -36457,8 +36589,14 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+      <c r="J1093" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -36490,8 +36628,14 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+      <c r="J1094" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -36523,8 +36667,14 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+      <c r="J1095" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -36556,8 +36706,14 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+      <c r="J1096" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -36589,8 +36745,14 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+      <c r="J1097" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -36622,8 +36784,14 @@
         <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+      <c r="J1098" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -36655,8 +36823,14 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+      <c r="J1099" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -36688,8 +36862,14 @@
         <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+      <c r="J1100" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -36721,8 +36901,14 @@
         <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+      <c r="J1101" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -36754,8 +36940,14 @@
         <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+      <c r="J1102" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -36787,8 +36979,14 @@
         <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+      <c r="J1103" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -36820,8 +37018,14 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+      <c r="J1104" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -36853,8 +37057,14 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+      <c r="J1105" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -36886,8 +37096,14 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+      <c r="J1106" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -36919,8 +37135,14 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+      <c r="J1107" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -36952,8 +37174,14 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+      <c r="J1108" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -36985,8 +37213,14 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+      <c r="J1109" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37018,8 +37252,14 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr"/>
+      <c r="J1110" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -37051,8 +37291,14 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr"/>
+      <c r="J1111" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -37084,8 +37330,14 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr"/>
+      <c r="J1112" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -37117,8 +37369,14 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr"/>
+      <c r="J1113" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -37150,8 +37408,14 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+      <c r="J1114" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -37183,8 +37447,14 @@
         <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr"/>
+      <c r="J1115" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -37216,8 +37486,14 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr"/>
+      <c r="J1116" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -37249,8 +37525,14 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr"/>
+      <c r="J1117" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -37282,8 +37564,14 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr"/>
+      <c r="J1118" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -37315,8 +37603,14 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr"/>
+      <c r="J1119" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -37345,11 +37639,19 @@
         <v>-1080952.59319231</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -37378,11 +37680,19 @@
         <v>-1077137.04589231</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -37414,8 +37724,14 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr"/>
+      <c r="J1122" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -37447,8 +37763,14 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+      <c r="J1123" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -37480,8 +37802,14 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+      <c r="J1124" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -37513,8 +37841,14 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+      <c r="J1125" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -37546,8 +37880,14 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+      <c r="J1126" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -37579,8 +37919,14 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+      <c r="J1127" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -37612,8 +37958,14 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+      <c r="J1128" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -37645,8 +37997,14 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+      <c r="J1129" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -37678,8 +38036,14 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+      <c r="J1130" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -37711,8 +38075,14 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr"/>
+      <c r="J1131" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -37744,8 +38114,14 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+      <c r="J1132" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -37777,8 +38153,14 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+      <c r="J1133" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -37810,8 +38192,14 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr"/>
+      <c r="J1134" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -37843,8 +38231,14 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+      <c r="J1135" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -37876,8 +38270,14 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr"/>
+      <c r="J1136" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -37909,8 +38309,14 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+      <c r="J1137" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -37942,8 +38348,14 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+      <c r="J1138" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -37975,8 +38387,14 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+      <c r="J1139" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38008,8 +38426,14 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+      <c r="J1140" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38041,8 +38465,14 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr"/>
+      <c r="J1141" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -38074,8 +38504,14 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr"/>
+      <c r="J1142" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -38107,8 +38543,14 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr"/>
+      <c r="J1143" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -38140,8 +38582,14 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr"/>
+      <c r="J1144" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -38173,8 +38621,14 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr"/>
+      <c r="J1145" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -38206,8 +38660,14 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr"/>
+      <c r="J1146" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -38239,8 +38699,14 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+      <c r="J1147" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -38272,8 +38738,14 @@
         <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+      <c r="J1148" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -38302,11 +38774,19 @@
         <v>-1096551.08899231</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>230.2</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -38335,11 +38815,19 @@
         <v>-1096551.08899231</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38371,8 +38859,14 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+      <c r="J1151" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38404,8 +38898,14 @@
         <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+      <c r="J1152" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38437,8 +38937,14 @@
         <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+      <c r="J1153" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38470,8 +38976,14 @@
         <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+      <c r="J1154" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38503,8 +39015,14 @@
         <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+      <c r="J1155" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38536,8 +39054,14 @@
         <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+      <c r="J1156" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38569,8 +39093,14 @@
         <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+      <c r="J1157" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -38602,8 +39132,14 @@
         <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+      <c r="J1158" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -38635,8 +39171,14 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+      <c r="J1159" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -38668,8 +39210,14 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+      <c r="J1160" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -38701,8 +39249,14 @@
         <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+      <c r="J1161" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -38734,8 +39288,14 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+      <c r="J1162" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -38767,8 +39327,14 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+      <c r="J1163" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -38800,8 +39366,14 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+      <c r="J1164" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -38830,11 +39402,19 @@
         <v>-1127641.17569231</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>229.7</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -38863,11 +39443,19 @@
         <v>-1125421.87879231</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -38896,11 +39484,19 @@
         <v>-1125421.87879231</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>230.2</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -38929,11 +39525,19 @@
         <v>-1124688.18139231</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>230.2</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -38962,11 +39566,19 @@
         <v>-1120564.17829231</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>230.3</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -38995,11 +39607,19 @@
         <v>-1120564.17829231</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39028,11 +39648,19 @@
         <v>-1117780.19589231</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39064,8 +39692,14 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr"/>
+      <c r="J1172" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39097,8 +39731,14 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr"/>
+      <c r="J1173" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39130,8 +39770,14 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr"/>
+      <c r="J1174" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39163,8 +39809,14 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr"/>
+      <c r="J1175" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39196,8 +39848,14 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr"/>
+      <c r="J1176" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39226,11 +39884,19 @@
         <v>-1146810.79499231</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>228.1</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39259,11 +39925,19 @@
         <v>-1144992.05189231</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>229.3</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -39292,11 +39966,19 @@
         <v>-1154850.66129231</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -39325,11 +40007,19 @@
         <v>-1134344.33979231</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -39358,11 +40048,19 @@
         <v>-1138744.07299231</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>230.3</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -39391,11 +40089,19 @@
         <v>-1133285.51179231</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -39424,11 +40130,19 @@
         <v>-1136227.65299231</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>230.4</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -39457,11 +40171,19 @@
         <v>-1132900.885492309</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -39490,11 +40212,19 @@
         <v>-1127653.433592309</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>229.3</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -39523,11 +40253,19 @@
         <v>-1125757.341092309</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -39556,11 +40294,19 @@
         <v>-1130379.898492309</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>230.2</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -39589,11 +40335,19 @@
         <v>-1128310.73879231</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>230</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -39622,11 +40376,19 @@
         <v>-1129167.699092309</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -39655,11 +40417,19 @@
         <v>-1129167.699092309</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>230</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -39688,11 +40458,19 @@
         <v>-1133567.970092309</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>230</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -39721,11 +40499,19 @@
         <v>-1141355.099892309</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>229.1</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -39754,11 +40540,19 @@
         <v>-1137658.849792309</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>228</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -39787,11 +40581,19 @@
         <v>-1148942.345892309</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>228.2</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -39820,11 +40622,19 @@
         <v>-1148942.345892309</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>228</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -39853,11 +40663,19 @@
         <v>-1182699.232592309</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>228</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -39886,11 +40704,19 @@
         <v>-1181505.660792309</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>227</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -39919,11 +40745,19 @@
         <v>-1181505.660792309</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>227.3</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -39952,11 +40786,19 @@
         <v>-1177413.015292309</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>227.3</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -39985,11 +40827,19 @@
         <v>-1170331.708492309</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>227.6</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40018,11 +40868,19 @@
         <v>-1173581.673792309</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>227.9</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40051,11 +40909,19 @@
         <v>-1173581.673792309</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40084,11 +40950,19 @@
         <v>-1161412.003992309</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40117,11 +40991,19 @@
         <v>-1164021.496192309</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>227.9</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40150,11 +41032,19 @@
         <v>-1173933.825992309</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>227.6</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -40183,11 +41073,19 @@
         <v>-1173933.825992309</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>227</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40216,11 +41114,19 @@
         <v>-1170290.359492309</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>227</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40249,15 +41155,17 @@
         <v>-1173756.369081729</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1208" t="n">
         <v>227.4</v>
       </c>
-      <c r="J1208" t="inlineStr"/>
+      <c r="J1208" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1208" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1208" t="n">
@@ -40288,12 +41196,14 @@
         <v>-1170943.150839219</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1209" t="n">
         <v>227.3</v>
       </c>
-      <c r="J1209" t="inlineStr"/>
+      <c r="J1209" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40327,12 +41237,14 @@
         <v>-1174983.040439219</v>
       </c>
       <c r="H1210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1210" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1210" t="inlineStr"/>
+      <c r="J1210" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40366,12 +41278,14 @@
         <v>-1167512.700839219</v>
       </c>
       <c r="H1211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1211" t="n">
         <v>227.5</v>
       </c>
-      <c r="J1211" t="inlineStr"/>
+      <c r="J1211" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40405,12 +41319,14 @@
         <v>-1163660.432339219</v>
       </c>
       <c r="H1212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1212" t="n">
         <v>227.7</v>
       </c>
-      <c r="J1212" t="inlineStr"/>
+      <c r="J1212" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40444,12 +41360,14 @@
         <v>-1166118.011839219</v>
       </c>
       <c r="H1213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1213" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1213" t="inlineStr"/>
+      <c r="J1213" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40483,12 +41401,14 @@
         <v>-1162802.002839219</v>
       </c>
       <c r="H1214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1214" t="n">
         <v>227.4</v>
       </c>
-      <c r="J1214" t="inlineStr"/>
+      <c r="J1214" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40522,12 +41442,14 @@
         <v>-1156471.743539219</v>
       </c>
       <c r="H1215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1215" t="n">
         <v>227.6</v>
       </c>
-      <c r="J1215" t="inlineStr"/>
+      <c r="J1215" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40561,12 +41483,14 @@
         <v>-1152020.831939219</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1216" t="n">
         <v>227.7</v>
       </c>
-      <c r="J1216" t="inlineStr"/>
+      <c r="J1216" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40600,12 +41524,14 @@
         <v>-1148729.970039219</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1217" t="n">
         <v>227.9</v>
       </c>
-      <c r="J1217" t="inlineStr"/>
+      <c r="J1217" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40639,12 +41565,14 @@
         <v>-1152043.017839219</v>
       </c>
       <c r="H1218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1218" t="n">
         <v>228.7</v>
       </c>
-      <c r="J1218" t="inlineStr"/>
+      <c r="J1218" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40678,12 +41606,14 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1219" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1219" t="inlineStr"/>
+      <c r="J1219" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40717,12 +41647,14 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1220" t="n">
         <v>228</v>
       </c>
-      <c r="J1220" t="inlineStr"/>
+      <c r="J1220" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40756,10 +41688,14 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>228</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40793,12 +41729,14 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1222" t="n">
         <v>228</v>
       </c>
-      <c r="J1222" t="inlineStr"/>
+      <c r="J1222" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40832,10 +41770,14 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>228</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40869,12 +41811,14 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1224" t="n">
         <v>228</v>
       </c>
-      <c r="J1224" t="inlineStr"/>
+      <c r="J1224" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40908,12 +41852,14 @@
         <v>-1152551.146384519</v>
       </c>
       <c r="H1225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1225" t="n">
         <v>228</v>
       </c>
-      <c r="J1225" t="inlineStr"/>
+      <c r="J1225" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40947,10 +41893,14 @@
         <v>-1157169.209784519</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>228.3</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40984,10 +41934,14 @@
         <v>-1157169.209784519</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>228.2</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41021,10 +41975,14 @@
         <v>-1159201.935084519</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>228.2</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41058,12 +42016,14 @@
         <v>-1157997.515884519</v>
       </c>
       <c r="H1229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1229" t="n">
         <v>228.1</v>
       </c>
-      <c r="J1229" t="inlineStr"/>
+      <c r="J1229" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41097,12 +42057,14 @@
         <v>-1155672.955084519</v>
       </c>
       <c r="H1230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1230" t="n">
         <v>228.2</v>
       </c>
-      <c r="J1230" t="inlineStr"/>
+      <c r="J1230" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41136,12 +42098,14 @@
         <v>-1141066.894712129</v>
       </c>
       <c r="H1231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1231" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1231" t="inlineStr"/>
+      <c r="J1231" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41175,12 +42139,14 @@
         <v>-1138292.981712129</v>
       </c>
       <c r="H1232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1232" t="n">
         <v>228.5</v>
       </c>
-      <c r="J1232" t="inlineStr"/>
+      <c r="J1232" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41214,12 +42180,14 @@
         <v>-1141669.919412129</v>
       </c>
       <c r="H1233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1233" t="n">
         <v>228.6</v>
       </c>
-      <c r="J1233" t="inlineStr"/>
+      <c r="J1233" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41253,10 +42221,14 @@
         <v>-1137539.695412129</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41290,10 +42262,14 @@
         <v>-1140800.341712129</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41327,10 +42303,14 @@
         <v>-1140800.341712129</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41364,10 +42344,14 @@
         <v>-1138252.379312129</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41401,10 +42385,14 @@
         <v>-1138252.379312129</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>228.7</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41438,10 +42426,14 @@
         <v>-1139734.082512129</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>228.7</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41475,10 +42467,14 @@
         <v>-1134814.841612129</v>
       </c>
       <c r="H1240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41512,10 +42508,14 @@
         <v>-1139710.419412129</v>
       </c>
       <c r="H1241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>228.6</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41549,10 +42549,14 @@
         <v>-1139710.419412129</v>
       </c>
       <c r="H1242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41586,10 +42590,14 @@
         <v>-1139710.419412129</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41623,10 +42631,14 @@
         <v>-1136132.616612129</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41660,10 +42672,14 @@
         <v>-1138583.570312129</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>228.6</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41697,10 +42713,14 @@
         <v>-1135985.153712129</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41734,10 +42754,14 @@
         <v>-1135985.153712129</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>228.7</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41771,10 +42795,14 @@
         <v>-1141182.247512129</v>
       </c>
       <c r="H1248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>228.7</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41808,10 +42836,14 @@
         <v>-1122376.687812129</v>
       </c>
       <c r="H1249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>228.4</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41845,10 +42877,14 @@
         <v>-1126126.924512129</v>
       </c>
       <c r="H1250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>228.6</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41882,10 +42918,14 @@
         <v>-1128946.237612129</v>
       </c>
       <c r="H1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>228.4</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41919,10 +42959,14 @@
         <v>-1128946.237612129</v>
       </c>
       <c r="H1252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1252" t="inlineStr"/>
-      <c r="J1252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>228.1</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41956,10 +43000,14 @@
         <v>-1135000.375812129</v>
       </c>
       <c r="H1253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1253" t="inlineStr"/>
-      <c r="J1253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>228.1</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41993,10 +43041,14 @@
         <v>-1135000.375812129</v>
       </c>
       <c r="H1254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>228</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42030,12 +43082,14 @@
         <v>-1149098.082612129</v>
       </c>
       <c r="H1255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1255" t="n">
         <v>228</v>
       </c>
-      <c r="J1255" t="inlineStr"/>
+      <c r="J1255" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42069,10 +43123,14 @@
         <v>-1142822.459912129</v>
       </c>
       <c r="H1256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>227.9</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42106,12 +43164,14 @@
         <v>-1140467.653512129</v>
       </c>
       <c r="H1257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1257" t="n">
         <v>228</v>
       </c>
-      <c r="J1257" t="inlineStr"/>
+      <c r="J1257" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42145,12 +43205,14 @@
         <v>-1140467.653512129</v>
       </c>
       <c r="H1258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1258" t="n">
         <v>228.1</v>
       </c>
-      <c r="J1258" t="inlineStr"/>
+      <c r="J1258" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42184,12 +43246,14 @@
         <v>-1135126.535512129</v>
       </c>
       <c r="H1259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1259" t="n">
         <v>228.1</v>
       </c>
-      <c r="J1259" t="inlineStr"/>
+      <c r="J1259" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42223,12 +43287,14 @@
         <v>-1135126.535512129</v>
       </c>
       <c r="H1260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1260" t="n">
         <v>228.2</v>
       </c>
-      <c r="J1260" t="inlineStr"/>
+      <c r="J1260" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42262,12 +43328,14 @@
         <v>-1135126.535512129</v>
       </c>
       <c r="H1261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1261" t="n">
         <v>228.2</v>
       </c>
-      <c r="J1261" t="inlineStr"/>
+      <c r="J1261" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42301,12 +43369,14 @@
         <v>-1135126.535512129</v>
       </c>
       <c r="H1262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1262" t="n">
         <v>228.2</v>
       </c>
-      <c r="J1262" t="inlineStr"/>
+      <c r="J1262" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42340,12 +43410,14 @@
         <v>-1137717.092112129</v>
       </c>
       <c r="H1263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1263" t="n">
         <v>228.2</v>
       </c>
-      <c r="J1263" t="inlineStr"/>
+      <c r="J1263" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42379,12 +43451,14 @@
         <v>-1137717.092112129</v>
       </c>
       <c r="H1264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1264" t="n">
         <v>228</v>
       </c>
-      <c r="J1264" t="inlineStr"/>
+      <c r="J1264" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42418,12 +43492,14 @@
         <v>-1154906.782012129</v>
       </c>
       <c r="H1265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1265" t="n">
         <v>228</v>
       </c>
-      <c r="J1265" t="inlineStr"/>
+      <c r="J1265" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42457,12 +43533,14 @@
         <v>-1140497.086612129</v>
       </c>
       <c r="H1266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1266" t="n">
         <v>227.7</v>
       </c>
-      <c r="J1266" t="inlineStr"/>
+      <c r="J1266" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42496,12 +43574,14 @@
         <v>-1135533.598212129</v>
       </c>
       <c r="H1267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1267" t="n">
         <v>227.8</v>
       </c>
-      <c r="J1267" t="inlineStr"/>
+      <c r="J1267" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42535,12 +43615,14 @@
         <v>-1144048.914412129</v>
       </c>
       <c r="H1268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1268" t="n">
         <v>228.1</v>
       </c>
-      <c r="J1268" t="inlineStr"/>
+      <c r="J1268" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42574,12 +43656,14 @@
         <v>-1146137.402112129</v>
       </c>
       <c r="H1269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1269" t="n">
         <v>227.9</v>
       </c>
-      <c r="J1269" t="inlineStr"/>
+      <c r="J1269" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42613,12 +43697,14 @@
         <v>-1165982.376912129</v>
       </c>
       <c r="H1270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1270" t="n">
         <v>227.7</v>
       </c>
-      <c r="J1270" t="inlineStr"/>
+      <c r="J1270" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42652,12 +43738,14 @@
         <v>-1170857.526212129</v>
       </c>
       <c r="H1271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1271" t="n">
         <v>227.1</v>
       </c>
-      <c r="J1271" t="inlineStr"/>
+      <c r="J1271" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42691,12 +43779,14 @@
         <v>-1147387.747012129</v>
       </c>
       <c r="H1272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1272" t="n">
         <v>227</v>
       </c>
-      <c r="J1272" t="inlineStr"/>
+      <c r="J1272" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42730,12 +43820,14 @@
         <v>-1140642.381112129</v>
       </c>
       <c r="H1273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1273" t="n">
         <v>227.1</v>
       </c>
-      <c r="J1273" t="inlineStr"/>
+      <c r="J1273" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42769,12 +43861,14 @@
         <v>-1134622.924812129</v>
       </c>
       <c r="H1274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1274" t="n">
         <v>227.4</v>
       </c>
-      <c r="J1274" t="inlineStr"/>
+      <c r="J1274" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42808,12 +43902,14 @@
         <v>-1132407.963312129</v>
       </c>
       <c r="H1275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1275" t="n">
         <v>227.7</v>
       </c>
-      <c r="J1275" t="inlineStr"/>
+      <c r="J1275" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42847,12 +43943,14 @@
         <v>-1134504.675712129</v>
       </c>
       <c r="H1276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1276" t="n">
         <v>228.2</v>
       </c>
-      <c r="J1276" t="inlineStr"/>
+      <c r="J1276" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42886,12 +43984,14 @@
         <v>-1130073.277712129</v>
       </c>
       <c r="H1277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1277" t="n">
         <v>228.1</v>
       </c>
-      <c r="J1277" t="inlineStr"/>
+      <c r="J1277" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42925,12 +44025,14 @@
         <v>-1130073.277712129</v>
       </c>
       <c r="H1278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1278" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1278" t="inlineStr"/>
+      <c r="J1278" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42964,12 +44066,14 @@
         <v>-1130073.277712129</v>
       </c>
       <c r="H1279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1279" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1279" t="inlineStr"/>
+      <c r="J1279" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43003,12 +44107,14 @@
         <v>-1130073.277712129</v>
       </c>
       <c r="H1280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1280" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1280" t="inlineStr"/>
+      <c r="J1280" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43042,12 +44148,14 @@
         <v>-1130073.277712129</v>
       </c>
       <c r="H1281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1281" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1281" t="inlineStr"/>
+      <c r="J1281" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43081,12 +44189,14 @@
         <v>-1130073.277712129</v>
       </c>
       <c r="H1282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1282" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1282" t="inlineStr"/>
+      <c r="J1282" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43120,12 +44230,14 @@
         <v>-1130073.277712129</v>
       </c>
       <c r="H1283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1283" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1283" t="inlineStr"/>
+      <c r="J1283" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43159,12 +44271,14 @@
         <v>-1133507.146612129</v>
       </c>
       <c r="H1284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1284" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1284" t="inlineStr"/>
+      <c r="J1284" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43198,12 +44312,14 @@
         <v>-1130626.499712129</v>
       </c>
       <c r="H1285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1285" t="n">
         <v>228</v>
       </c>
-      <c r="J1285" t="inlineStr"/>
+      <c r="J1285" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43237,12 +44353,14 @@
         <v>-1126248.664112129</v>
       </c>
       <c r="H1286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1286" t="n">
         <v>228.1</v>
       </c>
-      <c r="J1286" t="inlineStr"/>
+      <c r="J1286" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43276,12 +44394,14 @@
         <v>-1126248.664112129</v>
       </c>
       <c r="H1287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1287" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1287" t="inlineStr"/>
+      <c r="J1287" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43315,12 +44435,14 @@
         <v>-1126248.664112129</v>
       </c>
       <c r="H1288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1288" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1288" t="inlineStr"/>
+      <c r="J1288" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43354,12 +44476,14 @@
         <v>-1126248.664112129</v>
       </c>
       <c r="H1289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1289" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1289" t="inlineStr"/>
+      <c r="J1289" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43393,12 +44517,14 @@
         <v>-1121721.689112128</v>
       </c>
       <c r="H1290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1290" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1290" t="inlineStr"/>
+      <c r="J1290" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43432,12 +44558,14 @@
         <v>-1121396.611112128</v>
       </c>
       <c r="H1291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1291" t="n">
         <v>228.5</v>
       </c>
-      <c r="J1291" t="inlineStr"/>
+      <c r="J1291" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43471,12 +44599,14 @@
         <v>-1117899.786812128</v>
       </c>
       <c r="H1292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1292" t="n">
         <v>228.6</v>
       </c>
-      <c r="J1292" t="inlineStr"/>
+      <c r="J1292" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43510,12 +44640,14 @@
         <v>-1124754.493912128</v>
       </c>
       <c r="H1293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1293" t="n">
         <v>228.7</v>
       </c>
-      <c r="J1293" t="inlineStr"/>
+      <c r="J1293" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43549,12 +44681,14 @@
         <v>-1126975.519112129</v>
       </c>
       <c r="H1294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1294" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1294" t="inlineStr"/>
+      <c r="J1294" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43588,10 +44722,14 @@
         <v>-1122455.875712129</v>
       </c>
       <c r="H1295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1295" t="inlineStr"/>
-      <c r="J1295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1295" t="n">
+        <v>228.3</v>
+      </c>
+      <c r="J1295" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43625,10 +44763,14 @@
         <v>-1122455.875712129</v>
       </c>
       <c r="H1296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1296" t="inlineStr"/>
-      <c r="J1296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1296" t="n">
+        <v>228.4</v>
+      </c>
+      <c r="J1296" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43662,10 +44804,14 @@
         <v>-1122455.875712129</v>
       </c>
       <c r="H1297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1297" t="inlineStr"/>
-      <c r="J1297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1297" t="n">
+        <v>228.4</v>
+      </c>
+      <c r="J1297" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43699,10 +44845,14 @@
         <v>-1119253.601112129</v>
       </c>
       <c r="H1298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1298" t="inlineStr"/>
-      <c r="J1298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1298" t="n">
+        <v>228.4</v>
+      </c>
+      <c r="J1298" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43736,10 +44886,14 @@
         <v>-1124741.405912129</v>
       </c>
       <c r="H1299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1299" t="inlineStr"/>
-      <c r="J1299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1299" t="n">
+        <v>228.6</v>
+      </c>
+      <c r="J1299" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43773,10 +44927,14 @@
         <v>-1130008.059812129</v>
       </c>
       <c r="H1300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1300" t="inlineStr"/>
-      <c r="J1300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1300" t="n">
+        <v>228.4</v>
+      </c>
+      <c r="J1300" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43810,12 +44968,14 @@
         <v>-1130008.059812129</v>
       </c>
       <c r="H1301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1301" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1301" t="inlineStr"/>
+      <c r="J1301" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43849,12 +45009,14 @@
         <v>-1128747.171512129</v>
       </c>
       <c r="H1302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1302" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1302" t="inlineStr"/>
+      <c r="J1302" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43888,12 +45050,14 @@
         <v>-1131277.445712129</v>
       </c>
       <c r="H1303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1303" t="n">
         <v>228.6</v>
       </c>
-      <c r="J1303" t="inlineStr"/>
+      <c r="J1303" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43927,12 +45091,14 @@
         <v>-1131277.445712129</v>
       </c>
       <c r="H1304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1304" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1304" t="inlineStr"/>
+      <c r="J1304" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43966,12 +45132,14 @@
         <v>-1127264.081512129</v>
       </c>
       <c r="H1305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1305" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1305" t="inlineStr"/>
+      <c r="J1305" t="n">
+        <v>229.6</v>
+      </c>
       <c r="K1305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43983,6 +45151,6 @@
       <c r="M1305" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-21 BackTest LUNA.xlsx
@@ -4609,7 +4609,7 @@
         <v>-441748.6644860397</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-441687.1315860397</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-446654.3450860397</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-444353.1152860398</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-446353.1152860398</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-445150.0030860398</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-445220.5530860398</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-445220.5530860398</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-444870.5530860398</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-444870.5530860398</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-444520.5530860398</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-454683.5121860398</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-458785.2025860398</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-458785.2025860398</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-462993.1083860398</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-461813.6232871498</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-461813.6232871498</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-463784.1617871498</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-463979.3809871497</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-467771.6463871497</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-467511.8065871497</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-467511.8065871497</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-469995.2658871497</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-473847.6280871496</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-475290.0156871497</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-475855.8088871497</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-475855.8088871497</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-477500.6201871497</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-475317.6374275097</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-478428.3624275097</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-477289.8871275097</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-477037.9508275097</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-477320.4087275097</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-476593.8139275096</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-476682.8619275097</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-476682.8619275097</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-437532.4320275097</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-440153.5208275097</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-473387.9753275097</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-473036.7193275097</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-480470.8303275097</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-480071.4303275096</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-480671.4303275096</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-480671.4303275096</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-480971.4303275096</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-482459.1276275096</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-483246.5805275096</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-483264.7016275096</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-483264.7016275096</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-483444.9328275096</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-484428.4828275096</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-481793.2530275096</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-475508.6716275096</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-472794.3527275096</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-474766.9709275096</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-471702.7812275096</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-474523.2856275096</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-474523.2856275096</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-465536.6169275096</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-464161.1578275096</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-464997.8296275096</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-464997.8296275096</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-464997.8296275096</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-464328.6935275096</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-465478.9396275096</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-469044.5755275096</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-471324.3221275096</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-473173.8167275096</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-466975.2663275096</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>-466975.2663275096</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>-472923.6593275096</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>-472923.6593275096</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>-559220.822227509</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>-535063.538327509</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>-546691.6283275089</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-542873.729927509</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>-509196.204427509</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-480612.635343489</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-488637.404443489</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-497031.831543489</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-499164.577343489</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-502718.776843489</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-499672.092743489</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-503585.719643489</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>-507068.411243489</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-510295.542143489</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-504807.476543489</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-497559.423643489</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-504054.845543489</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-511376.824943489</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-493101.730543489</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-542145.981843489</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-553448.556443489</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>-556323.899743489</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-555559.568243489</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-468456.020743489</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-468456.020743489</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-478854.344643489</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-528523.193443489</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-514220.270843489</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-510295.336943489</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-510295.336943489</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-521968.741243489</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-526435.277543489</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-517838.242043489</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-519848.888043489</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-519890.890243489</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-518841.280243489</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-525129.855943489</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-498627.996443489</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-500600.662043489</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-494189.501643489</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-497383.011543489</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-489556.741643489</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-469916.134643489</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-483460.352043489</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-483460.352043489</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-478958.596843489</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-485126.703643489</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-489653.341143489</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-492894.082343489</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-494517.399043489</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-506256.654743489</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-502266.531443489</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-499648.215643489</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-502895.107543489</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-500060.702743489</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-500060.702743489</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-504188.299943489</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-516114.5223434891</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-479502.730343489</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-482531.114143489</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-477669.894343489</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-482172.886443489</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-486661.785043489</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-477732.9108434891</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-480832.4109434891</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-480832.4109434891</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-486870.5430306091</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-482127.7491306091</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-485250.6487306091</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-485250.6487306091</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-485250.6487306091</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-484065.3645306091</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-482667.9292306091</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-461440.3004306091</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-456456.2575306091</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-466649.5264306091</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-463748.4080306091</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-467666.6046306092</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-448906.8156306092</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-460130.0368306092</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-463854.6482306092</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-464713.5517306092</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-464713.5517306092</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-464713.5517306092</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-469273.4610306092</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-479793.1282306092</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-487763.5806306092</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-485262.9045306093</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-488953.3541306093</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-493312.0741306092</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-487396.5944306092</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-489740.1218306092</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-493279.5702306092</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-495584.8285306092</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-500982.6173306092</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-506241.4388306092</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-509595.7308306092</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-509595.7308306092</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-513125.4015306092</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22231,7 +22231,7 @@
         <v>-518252.4877306093</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22264,7 +22264,7 @@
         <v>-518252.4877306093</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22297,7 +22297,7 @@
         <v>-524883.5275306093</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22330,7 +22330,7 @@
         <v>-514610.6730929193</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22363,7 +22363,7 @@
         <v>-512329.5397929193</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-517831.1262929193</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22429,7 +22429,7 @@
         <v>-522633.0209929193</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22462,7 +22462,7 @@
         <v>-520228.2953929193</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22495,7 +22495,7 @@
         <v>-520228.2953929193</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22528,7 +22528,7 @@
         <v>-517663.7563929193</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22561,7 +22561,7 @@
         <v>-525882.0460929193</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22594,7 +22594,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +22627,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-528249.2620929193</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-536745.8770929193</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-539633.7231929193</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22891,7 +22891,7 @@
         <v>-530042.7597929193</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -22924,7 +22924,7 @@
         <v>-535169.3716929193</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>-547519.9074929194</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-600823.1229899495</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-609540.9156899495</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-610389.3275870195</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-613568.3796870195</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-613963.7402870195</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-612066.0755870196</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-616198.9845870195</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-616198.9845870195</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-649288.1715870196</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-645806.8483870196</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-643152.9711870196</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-643152.9711870196</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-648306.1536870196</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26224,7 +26224,7 @@
         <v>-685221.3792870196</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26455,7 +26455,7 @@
         <v>-697979.4419870196</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26488,7 @@
         <v>-701970.5242870196</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +26521,7 @@
         <v>-701970.5242870196</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -39919,169 +39919,171 @@
         <v>-1181505.660792309</v>
       </c>
       <c r="H1198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1198" t="inlineStr"/>
+      <c r="J1198" t="inlineStr"/>
+      <c r="K1198" t="inlineStr"/>
+      <c r="L1198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1198" t="inlineStr"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="1" t="n">
+        <v>1197</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>227.6</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>227.9</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>4092.6455</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>-1177413.015292309</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
         <v>227.3</v>
       </c>
-      <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr">
+      <c r="J1199" t="n">
+        <v>227.3</v>
+      </c>
+      <c r="K1199" t="inlineStr"/>
+      <c r="L1199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1199" t="inlineStr"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="1" t="n">
+        <v>1198</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>227.9</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>229</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>7081.3068</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>-1170331.708492309</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>227.6</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>227.3</v>
+      </c>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>227.8</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>227.8</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>3249.9653</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>-1173581.673792309</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>227.9</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>227.3</v>
+      </c>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>227.6</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>227.6</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>12748.4951</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>-1173581.673792309</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>227.3</v>
+      </c>
+      <c r="K1202" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1198" t="inlineStr"/>
-    </row>
-    <row r="1199">
-      <c r="A1199" s="1" t="n">
-        <v>1197</v>
-      </c>
-      <c r="B1199" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="C1199" t="n">
-        <v>227.6</v>
-      </c>
-      <c r="D1199" t="n">
-        <v>227.9</v>
-      </c>
-      <c r="E1199" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="F1199" t="n">
-        <v>4092.6455</v>
-      </c>
-      <c r="G1199" t="n">
-        <v>-1177413.015292309</v>
-      </c>
-      <c r="H1199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1199" t="n">
-        <v>227.3</v>
-      </c>
-      <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1199" t="inlineStr"/>
-    </row>
-    <row r="1200">
-      <c r="A1200" s="1" t="n">
-        <v>1198</v>
-      </c>
-      <c r="B1200" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="C1200" t="n">
-        <v>227.9</v>
-      </c>
-      <c r="D1200" t="n">
-        <v>229</v>
-      </c>
-      <c r="E1200" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="F1200" t="n">
-        <v>7081.3068</v>
-      </c>
-      <c r="G1200" t="n">
-        <v>-1170331.708492309</v>
-      </c>
-      <c r="H1200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1200" t="n">
-        <v>227.6</v>
-      </c>
-      <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1200" t="inlineStr"/>
-    </row>
-    <row r="1201">
-      <c r="A1201" s="1" t="n">
-        <v>1199</v>
-      </c>
-      <c r="B1201" t="n">
-        <v>227.8</v>
-      </c>
-      <c r="C1201" t="n">
-        <v>227.4</v>
-      </c>
-      <c r="D1201" t="n">
-        <v>227.8</v>
-      </c>
-      <c r="E1201" t="n">
-        <v>227.4</v>
-      </c>
-      <c r="F1201" t="n">
-        <v>3249.9653</v>
-      </c>
-      <c r="G1201" t="n">
-        <v>-1173581.673792309</v>
-      </c>
-      <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1201" t="inlineStr"/>
-    </row>
-    <row r="1202">
-      <c r="A1202" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="B1202" t="n">
-        <v>227.6</v>
-      </c>
-      <c r="C1202" t="n">
-        <v>227.4</v>
-      </c>
-      <c r="D1202" t="n">
-        <v>227.6</v>
-      </c>
-      <c r="E1202" t="n">
-        <v>227.4</v>
-      </c>
-      <c r="F1202" t="n">
-        <v>12748.4951</v>
-      </c>
-      <c r="G1202" t="n">
-        <v>-1173581.673792309</v>
-      </c>
-      <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40115,7 +40117,9 @@
       <c r="I1203" t="n">
         <v>227.4</v>
       </c>
-      <c r="J1203" t="inlineStr"/>
+      <c r="J1203" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40149,10 +40153,14 @@
         <v>-1164021.496192309</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>227.9</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40186,10 +40194,14 @@
         <v>-1173933.825992309</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>227.6</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40228,7 +40240,9 @@
       <c r="I1206" t="n">
         <v>227</v>
       </c>
-      <c r="J1206" t="inlineStr"/>
+      <c r="J1206" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40267,7 +40281,9 @@
       <c r="I1207" t="n">
         <v>227</v>
       </c>
-      <c r="J1207" t="inlineStr"/>
+      <c r="J1207" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40306,7 +40322,9 @@
       <c r="I1208" t="n">
         <v>227.4</v>
       </c>
-      <c r="J1208" t="inlineStr"/>
+      <c r="J1208" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40345,7 +40363,9 @@
       <c r="I1209" t="n">
         <v>227.3</v>
       </c>
-      <c r="J1209" t="inlineStr"/>
+      <c r="J1209" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40384,7 +40404,9 @@
       <c r="I1210" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1210" t="inlineStr"/>
+      <c r="J1210" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40423,7 +40445,9 @@
       <c r="I1211" t="n">
         <v>227.5</v>
       </c>
-      <c r="J1211" t="inlineStr"/>
+      <c r="J1211" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40462,7 +40486,9 @@
       <c r="I1212" t="n">
         <v>227.7</v>
       </c>
-      <c r="J1212" t="inlineStr"/>
+      <c r="J1212" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40501,7 +40527,9 @@
       <c r="I1213" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1213" t="inlineStr"/>
+      <c r="J1213" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40540,7 +40568,9 @@
       <c r="I1214" t="n">
         <v>227.4</v>
       </c>
-      <c r="J1214" t="inlineStr"/>
+      <c r="J1214" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40579,7 +40609,9 @@
       <c r="I1215" t="n">
         <v>227.6</v>
       </c>
-      <c r="J1215" t="inlineStr"/>
+      <c r="J1215" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40618,7 +40650,9 @@
       <c r="I1216" t="n">
         <v>227.7</v>
       </c>
-      <c r="J1216" t="inlineStr"/>
+      <c r="J1216" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40657,7 +40691,9 @@
       <c r="I1217" t="n">
         <v>227.9</v>
       </c>
-      <c r="J1217" t="inlineStr"/>
+      <c r="J1217" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40691,10 +40727,14 @@
         <v>-1152043.017839219</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>228.7</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40728,10 +40768,14 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>228.4</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40770,7 +40814,9 @@
       <c r="I1220" t="n">
         <v>228</v>
       </c>
-      <c r="J1220" t="inlineStr"/>
+      <c r="J1220" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40804,10 +40850,14 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>228</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40841,10 +40891,14 @@
         <v>-1156731.899739219</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>228</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40883,7 +40937,9 @@
       <c r="I1223" t="n">
         <v>228</v>
       </c>
-      <c r="J1223" t="inlineStr"/>
+      <c r="J1223" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40922,7 +40978,9 @@
       <c r="I1224" t="n">
         <v>228</v>
       </c>
-      <c r="J1224" t="inlineStr"/>
+      <c r="J1224" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40956,10 +41014,14 @@
         <v>-1152551.146384519</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>228</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40993,10 +41055,14 @@
         <v>-1157169.209784519</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>228.3</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41035,7 +41101,9 @@
       <c r="I1227" t="n">
         <v>228.2</v>
       </c>
-      <c r="J1227" t="inlineStr"/>
+      <c r="J1227" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41074,7 +41142,9 @@
       <c r="I1228" t="n">
         <v>228.2</v>
       </c>
-      <c r="J1228" t="inlineStr"/>
+      <c r="J1228" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41113,7 +41183,9 @@
       <c r="I1229" t="n">
         <v>228.1</v>
       </c>
-      <c r="J1229" t="inlineStr"/>
+      <c r="J1229" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41152,7 +41224,9 @@
       <c r="I1230" t="n">
         <v>228.2</v>
       </c>
-      <c r="J1230" t="inlineStr"/>
+      <c r="J1230" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41191,7 +41265,9 @@
       <c r="I1231" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1231" t="inlineStr"/>
+      <c r="J1231" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41230,7 +41306,9 @@
       <c r="I1232" t="n">
         <v>228.5</v>
       </c>
-      <c r="J1232" t="inlineStr"/>
+      <c r="J1232" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41269,7 +41347,9 @@
       <c r="I1233" t="n">
         <v>228.6</v>
       </c>
-      <c r="J1233" t="inlineStr"/>
+      <c r="J1233" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41303,10 +41383,14 @@
         <v>-1137539.695412129</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41345,7 +41429,9 @@
       <c r="I1235" t="n">
         <v>228.8</v>
       </c>
-      <c r="J1235" t="inlineStr"/>
+      <c r="J1235" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41384,7 +41470,9 @@
       <c r="I1236" t="n">
         <v>228.5</v>
       </c>
-      <c r="J1236" t="inlineStr"/>
+      <c r="J1236" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41423,7 +41511,9 @@
       <c r="I1237" t="n">
         <v>228.5</v>
       </c>
-      <c r="J1237" t="inlineStr"/>
+      <c r="J1237" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41457,12 +41547,12 @@
         <v>-1138252.379312129</v>
       </c>
       <c r="H1238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1238" t="n">
-        <v>228.7</v>
-      </c>
-      <c r="J1238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1238" t="inlineStr"/>
+      <c r="J1238" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41496,12 +41586,12 @@
         <v>-1139734.082512129</v>
       </c>
       <c r="H1239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1239" t="n">
-        <v>228.7</v>
-      </c>
-      <c r="J1239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1239" t="inlineStr"/>
+      <c r="J1239" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41535,12 +41625,12 @@
         <v>-1134814.841612129</v>
       </c>
       <c r="H1240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1240" t="n">
-        <v>228.5</v>
-      </c>
-      <c r="J1240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1240" t="inlineStr"/>
+      <c r="J1240" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41574,12 +41664,12 @@
         <v>-1139710.419412129</v>
       </c>
       <c r="H1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1241" t="n">
-        <v>228.6</v>
-      </c>
-      <c r="J1241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1241" t="inlineStr"/>
+      <c r="J1241" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41613,12 +41703,12 @@
         <v>-1139710.419412129</v>
       </c>
       <c r="H1242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1242" t="n">
-        <v>228.5</v>
-      </c>
-      <c r="J1242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1242" t="inlineStr"/>
+      <c r="J1242" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41652,12 +41742,12 @@
         <v>-1139710.419412129</v>
       </c>
       <c r="H1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1243" t="n">
-        <v>228.5</v>
-      </c>
-      <c r="J1243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1243" t="inlineStr"/>
+      <c r="J1243" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41691,12 +41781,12 @@
         <v>-1136132.616612129</v>
       </c>
       <c r="H1244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1244" t="n">
-        <v>228.5</v>
-      </c>
-      <c r="J1244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I1244" t="inlineStr"/>
+      <c r="J1244" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41733,7 +41823,9 @@
         <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="inlineStr"/>
+      <c r="J1245" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41767,10 +41859,14 @@
         <v>-1135985.153712129</v>
       </c>
       <c r="H1246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41804,10 +41900,14 @@
         <v>-1135985.153712129</v>
       </c>
       <c r="H1247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>228.7</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41846,7 +41946,9 @@
       <c r="I1248" t="n">
         <v>228.7</v>
       </c>
-      <c r="J1248" t="inlineStr"/>
+      <c r="J1248" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41885,7 +41987,9 @@
       <c r="I1249" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1249" t="inlineStr"/>
+      <c r="J1249" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41924,7 +42028,9 @@
       <c r="I1250" t="n">
         <v>228.6</v>
       </c>
-      <c r="J1250" t="inlineStr"/>
+      <c r="J1250" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41963,7 +42069,9 @@
       <c r="I1251" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1251" t="inlineStr"/>
+      <c r="J1251" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42002,7 +42110,9 @@
       <c r="I1252" t="n">
         <v>228.1</v>
       </c>
-      <c r="J1252" t="inlineStr"/>
+      <c r="J1252" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42041,7 +42151,9 @@
       <c r="I1253" t="n">
         <v>228.1</v>
       </c>
-      <c r="J1253" t="inlineStr"/>
+      <c r="J1253" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42080,7 +42192,9 @@
       <c r="I1254" t="n">
         <v>228</v>
       </c>
-      <c r="J1254" t="inlineStr"/>
+      <c r="J1254" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42119,7 +42233,9 @@
       <c r="I1255" t="n">
         <v>228</v>
       </c>
-      <c r="J1255" t="inlineStr"/>
+      <c r="J1255" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42158,7 +42274,9 @@
       <c r="I1256" t="n">
         <v>227.9</v>
       </c>
-      <c r="J1256" t="inlineStr"/>
+      <c r="J1256" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42197,7 +42315,9 @@
       <c r="I1257" t="n">
         <v>228</v>
       </c>
-      <c r="J1257" t="inlineStr"/>
+      <c r="J1257" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42236,7 +42356,9 @@
       <c r="I1258" t="n">
         <v>228.1</v>
       </c>
-      <c r="J1258" t="inlineStr"/>
+      <c r="J1258" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42275,7 +42397,9 @@
       <c r="I1259" t="n">
         <v>228.1</v>
       </c>
-      <c r="J1259" t="inlineStr"/>
+      <c r="J1259" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42314,7 +42438,9 @@
       <c r="I1260" t="n">
         <v>228.2</v>
       </c>
-      <c r="J1260" t="inlineStr"/>
+      <c r="J1260" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42353,7 +42479,9 @@
       <c r="I1261" t="n">
         <v>228.2</v>
       </c>
-      <c r="J1261" t="inlineStr"/>
+      <c r="J1261" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42392,7 +42520,9 @@
       <c r="I1262" t="n">
         <v>228.2</v>
       </c>
-      <c r="J1262" t="inlineStr"/>
+      <c r="J1262" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42431,7 +42561,9 @@
       <c r="I1263" t="n">
         <v>228.2</v>
       </c>
-      <c r="J1263" t="inlineStr"/>
+      <c r="J1263" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42470,7 +42602,9 @@
       <c r="I1264" t="n">
         <v>228</v>
       </c>
-      <c r="J1264" t="inlineStr"/>
+      <c r="J1264" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42509,7 +42643,9 @@
       <c r="I1265" t="n">
         <v>228</v>
       </c>
-      <c r="J1265" t="inlineStr"/>
+      <c r="J1265" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42548,7 +42684,9 @@
       <c r="I1266" t="n">
         <v>227.7</v>
       </c>
-      <c r="J1266" t="inlineStr"/>
+      <c r="J1266" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42587,7 +42725,9 @@
       <c r="I1267" t="n">
         <v>227.8</v>
       </c>
-      <c r="J1267" t="inlineStr"/>
+      <c r="J1267" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42626,7 +42766,9 @@
       <c r="I1268" t="n">
         <v>228.1</v>
       </c>
-      <c r="J1268" t="inlineStr"/>
+      <c r="J1268" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42665,7 +42807,9 @@
       <c r="I1269" t="n">
         <v>227.9</v>
       </c>
-      <c r="J1269" t="inlineStr"/>
+      <c r="J1269" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42704,7 +42848,9 @@
       <c r="I1270" t="n">
         <v>227.7</v>
       </c>
-      <c r="J1270" t="inlineStr"/>
+      <c r="J1270" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42743,7 +42889,9 @@
       <c r="I1271" t="n">
         <v>227.1</v>
       </c>
-      <c r="J1271" t="inlineStr"/>
+      <c r="J1271" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42782,7 +42930,9 @@
       <c r="I1272" t="n">
         <v>227</v>
       </c>
-      <c r="J1272" t="inlineStr"/>
+      <c r="J1272" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42821,7 +42971,9 @@
       <c r="I1273" t="n">
         <v>227.1</v>
       </c>
-      <c r="J1273" t="inlineStr"/>
+      <c r="J1273" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42860,7 +43012,9 @@
       <c r="I1274" t="n">
         <v>227.4</v>
       </c>
-      <c r="J1274" t="inlineStr"/>
+      <c r="J1274" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42899,7 +43053,9 @@
       <c r="I1275" t="n">
         <v>227.7</v>
       </c>
-      <c r="J1275" t="inlineStr"/>
+      <c r="J1275" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42938,7 +43094,9 @@
       <c r="I1276" t="n">
         <v>228.2</v>
       </c>
-      <c r="J1276" t="inlineStr"/>
+      <c r="J1276" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42977,7 +43135,9 @@
       <c r="I1277" t="n">
         <v>228.1</v>
       </c>
-      <c r="J1277" t="inlineStr"/>
+      <c r="J1277" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43016,7 +43176,9 @@
       <c r="I1278" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1278" t="inlineStr"/>
+      <c r="J1278" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43055,7 +43217,9 @@
       <c r="I1279" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1279" t="inlineStr"/>
+      <c r="J1279" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43094,7 +43258,9 @@
       <c r="I1280" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1280" t="inlineStr"/>
+      <c r="J1280" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43133,7 +43299,9 @@
       <c r="I1281" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1281" t="inlineStr"/>
+      <c r="J1281" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43172,7 +43340,9 @@
       <c r="I1282" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1282" t="inlineStr"/>
+      <c r="J1282" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43211,7 +43381,9 @@
       <c r="I1283" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1283" t="inlineStr"/>
+      <c r="J1283" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43250,7 +43422,9 @@
       <c r="I1284" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1284" t="inlineStr"/>
+      <c r="J1284" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43289,7 +43463,9 @@
       <c r="I1285" t="n">
         <v>228</v>
       </c>
-      <c r="J1285" t="inlineStr"/>
+      <c r="J1285" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43328,7 +43504,9 @@
       <c r="I1286" t="n">
         <v>228.1</v>
       </c>
-      <c r="J1286" t="inlineStr"/>
+      <c r="J1286" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43367,7 +43545,9 @@
       <c r="I1287" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1287" t="inlineStr"/>
+      <c r="J1287" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43406,7 +43586,9 @@
       <c r="I1288" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1288" t="inlineStr"/>
+      <c r="J1288" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43445,7 +43627,9 @@
       <c r="I1289" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1289" t="inlineStr"/>
+      <c r="J1289" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43484,7 +43668,9 @@
       <c r="I1290" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1290" t="inlineStr"/>
+      <c r="J1290" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43523,7 +43709,9 @@
       <c r="I1291" t="n">
         <v>228.5</v>
       </c>
-      <c r="J1291" t="inlineStr"/>
+      <c r="J1291" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43562,7 +43750,9 @@
       <c r="I1292" t="n">
         <v>228.6</v>
       </c>
-      <c r="J1292" t="inlineStr"/>
+      <c r="J1292" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43601,7 +43791,9 @@
       <c r="I1293" t="n">
         <v>228.7</v>
       </c>
-      <c r="J1293" t="inlineStr"/>
+      <c r="J1293" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43640,7 +43832,9 @@
       <c r="I1294" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1294" t="inlineStr"/>
+      <c r="J1294" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43679,7 +43873,9 @@
       <c r="I1295" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1295" t="inlineStr"/>
+      <c r="J1295" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43718,7 +43914,9 @@
       <c r="I1296" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1296" t="inlineStr"/>
+      <c r="J1296" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43757,7 +43955,9 @@
       <c r="I1297" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1297" t="inlineStr"/>
+      <c r="J1297" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43796,7 +43996,9 @@
       <c r="I1298" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1298" t="inlineStr"/>
+      <c r="J1298" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43835,7 +44037,9 @@
       <c r="I1299" t="n">
         <v>228.6</v>
       </c>
-      <c r="J1299" t="inlineStr"/>
+      <c r="J1299" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43874,7 +44078,9 @@
       <c r="I1300" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1300" t="inlineStr"/>
+      <c r="J1300" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43913,7 +44119,9 @@
       <c r="I1301" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1301" t="inlineStr"/>
+      <c r="J1301" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43952,7 +44160,9 @@
       <c r="I1302" t="n">
         <v>228.3</v>
       </c>
-      <c r="J1302" t="inlineStr"/>
+      <c r="J1302" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43991,7 +44201,9 @@
       <c r="I1303" t="n">
         <v>228.6</v>
       </c>
-      <c r="J1303" t="inlineStr"/>
+      <c r="J1303" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44030,7 +44242,9 @@
       <c r="I1304" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1304" t="inlineStr"/>
+      <c r="J1304" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44069,7 +44283,9 @@
       <c r="I1305" t="n">
         <v>228.4</v>
       </c>
-      <c r="J1305" t="inlineStr"/>
+      <c r="J1305" t="n">
+        <v>227.3</v>
+      </c>
       <c r="K1305" t="inlineStr">
         <is>
           <t>매도 대기</t>
